--- a/dataSet/cleanData/rs.xlsx
+++ b/dataSet/cleanData/rs.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E311"/>
+  <dimension ref="A1:E313"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6351,6 +6351,44 @@
         <v>161</v>
       </c>
     </row>
+    <row r="312">
+      <c r="A312" t="inlineStr">
+        <is>
+          <t>09.01.2021</t>
+        </is>
+      </c>
+      <c r="B312" t="n">
+        <v>149</v>
+      </c>
+      <c r="C312" t="n">
+        <v>665</v>
+      </c>
+      <c r="D312" t="n">
+        <v>16</v>
+      </c>
+      <c r="E312" t="n">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="inlineStr">
+        <is>
+          <t>10.01.2021</t>
+        </is>
+      </c>
+      <c r="B313" t="n">
+        <v>148</v>
+      </c>
+      <c r="C313" t="n">
+        <v>661</v>
+      </c>
+      <c r="D313" t="n">
+        <v>16</v>
+      </c>
+      <c r="E313" t="n">
+        <v>160</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/dataSet/cleanData/rs.xlsx
+++ b/dataSet/cleanData/rs.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E313"/>
+  <dimension ref="A1:E314"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6282,16 +6282,16 @@
         </is>
       </c>
       <c r="B308" t="n">
-        <v>147</v>
+        <v>184</v>
       </c>
       <c r="C308" t="n">
-        <v>657</v>
+        <v>840</v>
       </c>
       <c r="D308" t="n">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="E308" t="n">
-        <v>162</v>
+        <v>187</v>
       </c>
     </row>
     <row r="309">
@@ -6301,16 +6301,16 @@
         </is>
       </c>
       <c r="B309" t="n">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="C309" t="n">
-        <v>655</v>
+        <v>692</v>
       </c>
       <c r="D309" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="E309" t="n">
-        <v>159</v>
+        <v>164</v>
       </c>
     </row>
     <row r="310">
@@ -6320,16 +6320,16 @@
         </is>
       </c>
       <c r="B310" t="n">
-        <v>148</v>
+        <v>157</v>
       </c>
       <c r="C310" t="n">
-        <v>663</v>
+        <v>707</v>
       </c>
       <c r="D310" t="n">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="E310" t="n">
-        <v>159</v>
+        <v>165</v>
       </c>
     </row>
     <row r="311">
@@ -6339,16 +6339,16 @@
         </is>
       </c>
       <c r="B311" t="n">
-        <v>150</v>
+        <v>334</v>
       </c>
       <c r="C311" t="n">
-        <v>668</v>
+        <v>1600</v>
       </c>
       <c r="D311" t="n">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="E311" t="n">
-        <v>161</v>
+        <v>319</v>
       </c>
     </row>
     <row r="312">
@@ -6361,13 +6361,13 @@
         <v>149</v>
       </c>
       <c r="C312" t="n">
-        <v>665</v>
+        <v>1188</v>
       </c>
       <c r="D312" t="n">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="E312" t="n">
-        <v>159</v>
+        <v>174</v>
       </c>
     </row>
     <row r="313">
@@ -6377,16 +6377,35 @@
         </is>
       </c>
       <c r="B313" t="n">
-        <v>148</v>
+        <v>97</v>
       </c>
       <c r="C313" t="n">
-        <v>661</v>
+        <v>1005</v>
       </c>
       <c r="D313" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E313" t="n">
-        <v>160</v>
+        <v>153</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="inlineStr">
+        <is>
+          <t>11.01.2021</t>
+        </is>
+      </c>
+      <c r="B314" t="n">
+        <v>41</v>
+      </c>
+      <c r="C314" t="n">
+        <v>938</v>
+      </c>
+      <c r="D314" t="n">
+        <v>13</v>
+      </c>
+      <c r="E314" t="n">
+        <v>56</v>
       </c>
     </row>
   </sheetData>

--- a/dataSet/cleanData/rs.xlsx
+++ b/dataSet/cleanData/rs.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E314"/>
+  <dimension ref="A1:E317"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6408,6 +6408,63 @@
         <v>56</v>
       </c>
     </row>
+    <row r="315">
+      <c r="A315" t="inlineStr">
+        <is>
+          <t>12.01.2021</t>
+        </is>
+      </c>
+      <c r="B315" t="n">
+        <v>104</v>
+      </c>
+      <c r="C315" t="n">
+        <v>1204</v>
+      </c>
+      <c r="D315" t="n">
+        <v>7</v>
+      </c>
+      <c r="E315" t="n">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="inlineStr">
+        <is>
+          <t>13.01.2021</t>
+        </is>
+      </c>
+      <c r="B316" t="n">
+        <v>145</v>
+      </c>
+      <c r="C316" t="n">
+        <v>1187</v>
+      </c>
+      <c r="D316" t="n">
+        <v>10</v>
+      </c>
+      <c r="E316" t="n">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="inlineStr">
+        <is>
+          <t>14.01.2021</t>
+        </is>
+      </c>
+      <c r="B317" t="n">
+        <v>107</v>
+      </c>
+      <c r="C317" t="n">
+        <v>1104</v>
+      </c>
+      <c r="D317" t="n">
+        <v>8</v>
+      </c>
+      <c r="E317" t="n">
+        <v>137</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/dataSet/cleanData/rs.xlsx
+++ b/dataSet/cleanData/rs.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E317"/>
+  <dimension ref="A1:E318"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6465,6 +6465,25 @@
         <v>137</v>
       </c>
     </row>
+    <row r="318">
+      <c r="A318" t="inlineStr">
+        <is>
+          <t>15.01.2021</t>
+        </is>
+      </c>
+      <c r="B318" t="n">
+        <v>98</v>
+      </c>
+      <c r="C318" t="n">
+        <v>1087</v>
+      </c>
+      <c r="D318" t="n">
+        <v>9</v>
+      </c>
+      <c r="E318" t="n">
+        <v>129</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/dataSet/cleanData/rs.xlsx
+++ b/dataSet/cleanData/rs.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E318"/>
+  <dimension ref="A1:E324"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6434,16 +6434,16 @@
         </is>
       </c>
       <c r="B316" t="n">
-        <v>145</v>
+        <v>177</v>
       </c>
       <c r="C316" t="n">
-        <v>1187</v>
+        <v>1375</v>
       </c>
       <c r="D316" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E316" t="n">
-        <v>167</v>
+        <v>0</v>
       </c>
     </row>
     <row r="317">
@@ -6453,16 +6453,16 @@
         </is>
       </c>
       <c r="B317" t="n">
-        <v>107</v>
+        <v>160</v>
       </c>
       <c r="C317" t="n">
-        <v>1104</v>
+        <v>1107</v>
       </c>
       <c r="D317" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E317" t="n">
-        <v>137</v>
+        <v>254</v>
       </c>
     </row>
     <row r="318">
@@ -6472,16 +6472,130 @@
         </is>
       </c>
       <c r="B318" t="n">
-        <v>98</v>
+        <v>71</v>
       </c>
       <c r="C318" t="n">
-        <v>1087</v>
+        <v>667</v>
       </c>
       <c r="D318" t="n">
+        <v>8</v>
+      </c>
+      <c r="E318" t="n">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="inlineStr">
+        <is>
+          <t>16.01.2021</t>
+        </is>
+      </c>
+      <c r="B319" t="n">
+        <v>115</v>
+      </c>
+      <c r="C319" t="n">
+        <v>976</v>
+      </c>
+      <c r="D319" t="n">
+        <v>14</v>
+      </c>
+      <c r="E319" t="n">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="inlineStr">
+        <is>
+          <t>17.01.2021</t>
+        </is>
+      </c>
+      <c r="B320" t="n">
+        <v>-30</v>
+      </c>
+      <c r="C320" t="n">
+        <v>569</v>
+      </c>
+      <c r="D320" t="n">
         <v>9</v>
       </c>
-      <c r="E318" t="n">
-        <v>129</v>
+      <c r="E320" t="n">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="inlineStr">
+        <is>
+          <t>18.01.2021</t>
+        </is>
+      </c>
+      <c r="B321" t="n">
+        <v>155</v>
+      </c>
+      <c r="C321" t="n">
+        <v>533</v>
+      </c>
+      <c r="D321" t="n">
+        <v>5</v>
+      </c>
+      <c r="E321" t="n">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="inlineStr">
+        <is>
+          <t>19.01.2021</t>
+        </is>
+      </c>
+      <c r="B322" t="n">
+        <v>91</v>
+      </c>
+      <c r="C322" t="n">
+        <v>731</v>
+      </c>
+      <c r="D322" t="n">
+        <v>10</v>
+      </c>
+      <c r="E322" t="n">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="inlineStr">
+        <is>
+          <t>20.01.2021</t>
+        </is>
+      </c>
+      <c r="B323" t="n">
+        <v>126</v>
+      </c>
+      <c r="C323" t="n">
+        <v>588</v>
+      </c>
+      <c r="D323" t="n">
+        <v>3</v>
+      </c>
+      <c r="E323" t="n">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="inlineStr">
+        <is>
+          <t>21.01.2021</t>
+        </is>
+      </c>
+      <c r="B324" t="n">
+        <v>91</v>
+      </c>
+      <c r="C324" t="n">
+        <v>679</v>
+      </c>
+      <c r="D324" t="n">
+        <v>6</v>
+      </c>
+      <c r="E324" t="n">
+        <v>120</v>
       </c>
     </row>
   </sheetData>

--- a/dataSet/cleanData/rs.xlsx
+++ b/dataSet/cleanData/rs.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E324"/>
+  <dimension ref="A1:E326"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6586,16 +6586,54 @@
         </is>
       </c>
       <c r="B324" t="n">
-        <v>91</v>
+        <v>165</v>
       </c>
       <c r="C324" t="n">
-        <v>679</v>
+        <v>629</v>
       </c>
       <c r="D324" t="n">
         <v>6</v>
       </c>
       <c r="E324" t="n">
-        <v>120</v>
+        <v>251</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="inlineStr">
+        <is>
+          <t>22.01.2021</t>
+        </is>
+      </c>
+      <c r="B325" t="n">
+        <v>101</v>
+      </c>
+      <c r="C325" t="n">
+        <v>610</v>
+      </c>
+      <c r="D325" t="n">
+        <v>4</v>
+      </c>
+      <c r="E325" t="n">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="inlineStr">
+        <is>
+          <t>23.01.2021</t>
+        </is>
+      </c>
+      <c r="B326" t="n">
+        <v>127</v>
+      </c>
+      <c r="C326" t="n">
+        <v>618</v>
+      </c>
+      <c r="D326" t="n">
+        <v>5</v>
+      </c>
+      <c r="E326" t="n">
+        <v>147</v>
       </c>
     </row>
   </sheetData>

--- a/dataSet/cleanData/rs.xlsx
+++ b/dataSet/cleanData/rs.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E326"/>
+  <dimension ref="A1:E328"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6605,16 +6605,16 @@
         </is>
       </c>
       <c r="B325" t="n">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="C325" t="n">
-        <v>610</v>
+        <v>596</v>
       </c>
       <c r="D325" t="n">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="E325" t="n">
-        <v>137</v>
+        <v>68</v>
       </c>
     </row>
     <row r="326">
@@ -6624,16 +6624,54 @@
         </is>
       </c>
       <c r="B326" t="n">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C326" t="n">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="D326" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E326" t="n">
-        <v>147</v>
+        <v>134</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="inlineStr">
+        <is>
+          <t>24.01.2021</t>
+        </is>
+      </c>
+      <c r="B327" t="n">
+        <v>119</v>
+      </c>
+      <c r="C327" t="n">
+        <v>631</v>
+      </c>
+      <c r="D327" t="n">
+        <v>12</v>
+      </c>
+      <c r="E327" t="n">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="inlineStr">
+        <is>
+          <t>25.01.2021</t>
+        </is>
+      </c>
+      <c r="B328" t="n">
+        <v>236</v>
+      </c>
+      <c r="C328" t="n">
+        <v>1820</v>
+      </c>
+      <c r="D328" t="n">
+        <v>21</v>
+      </c>
+      <c r="E328" t="n">
+        <v>338</v>
       </c>
     </row>
   </sheetData>

--- a/dataSet/cleanData/rs.xlsx
+++ b/dataSet/cleanData/rs.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E328"/>
+  <dimension ref="A1:E330"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6674,6 +6674,44 @@
         <v>338</v>
       </c>
     </row>
+    <row r="329">
+      <c r="A329" t="inlineStr">
+        <is>
+          <t>26.01.2021</t>
+        </is>
+      </c>
+      <c r="B329" t="n">
+        <v>106</v>
+      </c>
+      <c r="C329" t="n">
+        <v>684</v>
+      </c>
+      <c r="D329" t="n">
+        <v>14</v>
+      </c>
+      <c r="E329" t="n">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="inlineStr">
+        <is>
+          <t>27.01.2021</t>
+        </is>
+      </c>
+      <c r="B330" t="n">
+        <v>125</v>
+      </c>
+      <c r="C330" t="n">
+        <v>654</v>
+      </c>
+      <c r="D330" t="n">
+        <v>5</v>
+      </c>
+      <c r="E330" t="n">
+        <v>132</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/dataSet/cleanData/rs.xlsx
+++ b/dataSet/cleanData/rs.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E330"/>
+  <dimension ref="A1:E332"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6712,6 +6712,44 @@
         <v>132</v>
       </c>
     </row>
+    <row r="331">
+      <c r="A331" t="inlineStr">
+        <is>
+          <t>28.01.2021</t>
+        </is>
+      </c>
+      <c r="B331" t="n">
+        <v>137</v>
+      </c>
+      <c r="C331" t="n">
+        <v>615</v>
+      </c>
+      <c r="D331" t="n">
+        <v>5</v>
+      </c>
+      <c r="E331" t="n">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="inlineStr">
+        <is>
+          <t>29.01.2021</t>
+        </is>
+      </c>
+      <c r="B332" t="n">
+        <v>144</v>
+      </c>
+      <c r="C332" t="n">
+        <v>880</v>
+      </c>
+      <c r="D332" t="n">
+        <v>5</v>
+      </c>
+      <c r="E332" t="n">
+        <v>176</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/dataSet/cleanData/rs.xlsx
+++ b/dataSet/cleanData/rs.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E332"/>
+  <dimension ref="A1:E337"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6738,16 +6738,111 @@
         </is>
       </c>
       <c r="B332" t="n">
-        <v>144</v>
+        <v>101</v>
       </c>
       <c r="C332" t="n">
-        <v>880</v>
+        <v>669</v>
       </c>
       <c r="D332" t="n">
+        <v>13</v>
+      </c>
+      <c r="E332" t="n">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="inlineStr">
+        <is>
+          <t>30.01.2021</t>
+        </is>
+      </c>
+      <c r="B333" t="n">
+        <v>141</v>
+      </c>
+      <c r="C333" t="n">
+        <v>888</v>
+      </c>
+      <c r="D333" t="n">
+        <v>9</v>
+      </c>
+      <c r="E333" t="n">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="inlineStr">
+        <is>
+          <t>31.01.2021</t>
+        </is>
+      </c>
+      <c r="B334" t="n">
+        <v>122</v>
+      </c>
+      <c r="C334" t="n">
+        <v>702</v>
+      </c>
+      <c r="D334" t="n">
+        <v>11</v>
+      </c>
+      <c r="E334" t="n">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="inlineStr">
+        <is>
+          <t>01.02.2021</t>
+        </is>
+      </c>
+      <c r="B335" t="n">
+        <v>252</v>
+      </c>
+      <c r="C335" t="n">
+        <v>1798</v>
+      </c>
+      <c r="D335" t="n">
+        <v>20</v>
+      </c>
+      <c r="E335" t="n">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="inlineStr">
+        <is>
+          <t>02.02.2021</t>
+        </is>
+      </c>
+      <c r="B336" t="n">
+        <v>85</v>
+      </c>
+      <c r="C336" t="n">
+        <v>642</v>
+      </c>
+      <c r="D336" t="n">
         <v>5</v>
       </c>
-      <c r="E332" t="n">
-        <v>176</v>
+      <c r="E336" t="n">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="inlineStr">
+        <is>
+          <t>03.02.2021</t>
+        </is>
+      </c>
+      <c r="B337" t="n">
+        <v>140</v>
+      </c>
+      <c r="C337" t="n">
+        <v>939</v>
+      </c>
+      <c r="D337" t="n">
+        <v>12</v>
+      </c>
+      <c r="E337" t="n">
+        <v>226</v>
       </c>
     </row>
   </sheetData>

--- a/dataSet/cleanData/rs.xlsx
+++ b/dataSet/cleanData/rs.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E337"/>
+  <dimension ref="A1:E340"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6833,16 +6833,73 @@
         </is>
       </c>
       <c r="B337" t="n">
-        <v>140</v>
+        <v>82</v>
       </c>
       <c r="C337" t="n">
-        <v>939</v>
+        <v>557</v>
       </c>
       <c r="D337" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="E337" t="n">
-        <v>226</v>
+        <v>178</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="inlineStr">
+        <is>
+          <t>04.02.2021</t>
+        </is>
+      </c>
+      <c r="B338" t="n">
+        <v>136</v>
+      </c>
+      <c r="C338" t="n">
+        <v>917</v>
+      </c>
+      <c r="D338" t="n">
+        <v>5</v>
+      </c>
+      <c r="E338" t="n">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="inlineStr">
+        <is>
+          <t>05.02.2021</t>
+        </is>
+      </c>
+      <c r="B339" t="n">
+        <v>135</v>
+      </c>
+      <c r="C339" t="n">
+        <v>923</v>
+      </c>
+      <c r="D339" t="n">
+        <v>5</v>
+      </c>
+      <c r="E339" t="n">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="inlineStr">
+        <is>
+          <t>06.02.2021</t>
+        </is>
+      </c>
+      <c r="B340" t="n">
+        <v>138</v>
+      </c>
+      <c r="C340" t="n">
+        <v>967</v>
+      </c>
+      <c r="D340" t="n">
+        <v>5</v>
+      </c>
+      <c r="E340" t="n">
+        <v>203</v>
       </c>
     </row>
   </sheetData>
